--- a/data/pca/factorExposure/factorExposure_2009-09-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01813773855918095</v>
+        <v>0.01676734981280429</v>
       </c>
       <c r="C2">
-        <v>-0.001579913637540124</v>
+        <v>0.0009459492718817596</v>
       </c>
       <c r="D2">
-        <v>0.003291206446295783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009746447746064127</v>
+      </c>
+      <c r="E2">
+        <v>-0.002561298714954854</v>
+      </c>
+      <c r="F2">
+        <v>-0.01241183621023539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09721193915569898</v>
+        <v>0.09399958862430381</v>
       </c>
       <c r="C4">
-        <v>-0.02104435446490987</v>
+        <v>0.01464019466060704</v>
       </c>
       <c r="D4">
-        <v>0.06418578998495247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08387958383922846</v>
+      </c>
+      <c r="E4">
+        <v>-0.02892270526339568</v>
+      </c>
+      <c r="F4">
+        <v>0.03158746645149593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1478628369071824</v>
+        <v>0.1593690893820414</v>
       </c>
       <c r="C6">
-        <v>-0.02675797968090854</v>
+        <v>0.02687239940856409</v>
       </c>
       <c r="D6">
-        <v>-0.02313653406747278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02395202349344085</v>
+      </c>
+      <c r="E6">
+        <v>-0.01036654892249322</v>
+      </c>
+      <c r="F6">
+        <v>0.04436573705748758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06505368615295912</v>
+        <v>0.0636227146337878</v>
       </c>
       <c r="C7">
-        <v>-0.003321073580446549</v>
+        <v>-0.001709188397336303</v>
       </c>
       <c r="D7">
-        <v>0.03744912464303947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0526363704284909</v>
+      </c>
+      <c r="E7">
+        <v>-0.01201097130990652</v>
+      </c>
+      <c r="F7">
+        <v>0.04602040714418216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06506999301680005</v>
+        <v>0.05765956450687038</v>
       </c>
       <c r="C8">
-        <v>0.009446672464227602</v>
+        <v>-0.01318291800577637</v>
       </c>
       <c r="D8">
-        <v>0.01489056306090079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03260336966561916</v>
+      </c>
+      <c r="E8">
+        <v>-0.01818636303814269</v>
+      </c>
+      <c r="F8">
+        <v>-0.02608755703809074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07482773918297567</v>
+        <v>0.07086027751221351</v>
       </c>
       <c r="C9">
-        <v>-0.01735783060530839</v>
+        <v>0.01022917733391263</v>
       </c>
       <c r="D9">
-        <v>0.06662472341262823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08735638976149296</v>
+      </c>
+      <c r="E9">
+        <v>-0.02371601235544241</v>
+      </c>
+      <c r="F9">
+        <v>0.04513117740731856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08021841245980933</v>
+        <v>0.09128543153262494</v>
       </c>
       <c r="C10">
-        <v>-0.01215882306803539</v>
+        <v>0.02101042308054407</v>
       </c>
       <c r="D10">
-        <v>-0.1661878526431339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1638670372962755</v>
+      </c>
+      <c r="E10">
+        <v>0.03186317344456114</v>
+      </c>
+      <c r="F10">
+        <v>-0.05685597400269797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09458818573090674</v>
+        <v>0.08830351921352739</v>
       </c>
       <c r="C11">
-        <v>-0.01827630116427379</v>
+        <v>0.01035396042225479</v>
       </c>
       <c r="D11">
-        <v>0.09304451137651175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.117244998806842</v>
+      </c>
+      <c r="E11">
+        <v>-0.04603788183359471</v>
+      </c>
+      <c r="F11">
+        <v>0.02230450582810323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1016900613359402</v>
+        <v>0.0920518177035152</v>
       </c>
       <c r="C12">
-        <v>-0.01632401396926443</v>
+        <v>0.007704910784046555</v>
       </c>
       <c r="D12">
-        <v>0.09532472287584932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1318457187525052</v>
+      </c>
+      <c r="E12">
+        <v>-0.04564527294423806</v>
+      </c>
+      <c r="F12">
+        <v>0.02996953252837287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04269383380640789</v>
+        <v>0.04131060919696243</v>
       </c>
       <c r="C13">
-        <v>-0.006155366742887279</v>
+        <v>0.002343299796928064</v>
       </c>
       <c r="D13">
-        <v>0.03091698418307856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05296821262631143</v>
+      </c>
+      <c r="E13">
+        <v>0.00455025772366327</v>
+      </c>
+      <c r="F13">
+        <v>0.001205584721461382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02020658725400487</v>
+        <v>0.02400007183601524</v>
       </c>
       <c r="C14">
-        <v>-0.01526399953565627</v>
+        <v>0.01379812839059422</v>
       </c>
       <c r="D14">
-        <v>0.02291719998685727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03348043664634485</v>
+      </c>
+      <c r="E14">
+        <v>-0.01863186883485356</v>
+      </c>
+      <c r="F14">
+        <v>0.01352019197266415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03526183199329096</v>
+        <v>0.03307193220305737</v>
       </c>
       <c r="C15">
-        <v>-0.007896722089409999</v>
+        <v>0.004650056986629874</v>
       </c>
       <c r="D15">
-        <v>0.02901680702975412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04526787367614406</v>
+      </c>
+      <c r="E15">
+        <v>-0.005905481729216176</v>
+      </c>
+      <c r="F15">
+        <v>0.02547356326460638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08108993361540452</v>
+        <v>0.07434465685583867</v>
       </c>
       <c r="C16">
-        <v>-0.009009477051414812</v>
+        <v>0.0009115149642108884</v>
       </c>
       <c r="D16">
-        <v>0.09574842043636383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278110153785143</v>
+      </c>
+      <c r="E16">
+        <v>-0.06020558255894138</v>
+      </c>
+      <c r="F16">
+        <v>0.02683117248785172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000736339606996561</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.000186308524039086</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001540945276401647</v>
+      </c>
+      <c r="E17">
+        <v>-0.0009925668801766079</v>
+      </c>
+      <c r="F17">
+        <v>-0.002165040993763427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.01667989291562137</v>
+        <v>0.03632813074322008</v>
       </c>
       <c r="C18">
-        <v>0.003177020570827505</v>
+        <v>-0.002952057485386685</v>
       </c>
       <c r="D18">
-        <v>0.03133981283012356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01581046954396368</v>
+      </c>
+      <c r="E18">
+        <v>0.008817106383900592</v>
+      </c>
+      <c r="F18">
+        <v>-0.008059971173452725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06740431104964979</v>
+        <v>0.06214830348667193</v>
       </c>
       <c r="C20">
-        <v>-0.006794413637255189</v>
+        <v>0.0001035714454683869</v>
       </c>
       <c r="D20">
-        <v>0.04805385814583574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07756152237087136</v>
+      </c>
+      <c r="E20">
+        <v>-0.05542544217175254</v>
+      </c>
+      <c r="F20">
+        <v>0.02939064456240435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04352585279193846</v>
+        <v>0.04070027235244299</v>
       </c>
       <c r="C21">
-        <v>-0.01032320846269328</v>
+        <v>0.006408507013714816</v>
       </c>
       <c r="D21">
-        <v>0.02332031890499608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03844615815871244</v>
+      </c>
+      <c r="E21">
+        <v>0.001248867915256108</v>
+      </c>
+      <c r="F21">
+        <v>-0.02504798496616506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04110728932537568</v>
+        <v>0.04325863476799661</v>
       </c>
       <c r="C22">
-        <v>-0.0007793311769267905</v>
+        <v>0.000474169868125329</v>
       </c>
       <c r="D22">
-        <v>-0.01099650065426332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004320532218476869</v>
+      </c>
+      <c r="E22">
+        <v>-0.03675058008902361</v>
+      </c>
+      <c r="F22">
+        <v>-0.03685102683605053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04107003841058334</v>
+        <v>0.04323439262698509</v>
       </c>
       <c r="C23">
-        <v>-0.0007698527487819889</v>
+        <v>0.0004656499062530592</v>
       </c>
       <c r="D23">
-        <v>-0.01097620339517085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004336260213672352</v>
+      </c>
+      <c r="E23">
+        <v>-0.03693323360067794</v>
+      </c>
+      <c r="F23">
+        <v>-0.03681200324089602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08643022221960418</v>
+        <v>0.08007419534027746</v>
       </c>
       <c r="C24">
-        <v>-0.009430918532062297</v>
+        <v>0.001618800339477136</v>
       </c>
       <c r="D24">
-        <v>0.1006839500509805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1205213246873902</v>
+      </c>
+      <c r="E24">
+        <v>-0.04824776344795875</v>
+      </c>
+      <c r="F24">
+        <v>0.02848032095683869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09146404364065916</v>
+        <v>0.08499791864421585</v>
       </c>
       <c r="C25">
-        <v>-0.01179394846508539</v>
+        <v>0.004213160376731932</v>
       </c>
       <c r="D25">
-        <v>0.08712718146811407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.110071261901872</v>
+      </c>
+      <c r="E25">
+        <v>-0.03232823143755252</v>
+      </c>
+      <c r="F25">
+        <v>0.02608405337320669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05868883173983269</v>
+        <v>0.05906874026725696</v>
       </c>
       <c r="C26">
-        <v>-0.01834426701927416</v>
+        <v>0.01451197291070434</v>
       </c>
       <c r="D26">
-        <v>0.01579367130856075</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04116263952297543</v>
+      </c>
+      <c r="E26">
+        <v>-0.02863345582551828</v>
+      </c>
+      <c r="F26">
+        <v>-0.007020809757689333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.129284577084622</v>
+        <v>0.1421380971561098</v>
       </c>
       <c r="C28">
-        <v>-0.01036055243153952</v>
+        <v>0.02250767711138914</v>
       </c>
       <c r="D28">
-        <v>-0.2774880053668837</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2614484098823474</v>
+      </c>
+      <c r="E28">
+        <v>0.06679822343672014</v>
+      </c>
+      <c r="F28">
+        <v>0.004217528813088039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02675257846923892</v>
+        <v>0.028745398931133</v>
       </c>
       <c r="C29">
-        <v>-0.009962560700337171</v>
+        <v>0.008715407754696137</v>
       </c>
       <c r="D29">
-        <v>0.02005981942139137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03142294087602431</v>
+      </c>
+      <c r="E29">
+        <v>-0.01386493657145383</v>
+      </c>
+      <c r="F29">
+        <v>-0.01271570119436732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06920955213993966</v>
+        <v>0.05907919083306638</v>
       </c>
       <c r="C30">
-        <v>-0.01055044843805318</v>
+        <v>0.002559102722521695</v>
       </c>
       <c r="D30">
-        <v>0.05920057041462896</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08910560465576355</v>
+      </c>
+      <c r="E30">
+        <v>-0.01436834669217106</v>
+      </c>
+      <c r="F30">
+        <v>0.07882825752497045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05129062388249586</v>
+        <v>0.05115450591796086</v>
       </c>
       <c r="C31">
-        <v>-0.0169430335214645</v>
+        <v>0.01557122218801585</v>
       </c>
       <c r="D31">
-        <v>0.020634288465074</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02485197229354724</v>
+      </c>
+      <c r="E31">
+        <v>-0.02881867739888647</v>
+      </c>
+      <c r="F31">
+        <v>-0.001174751073830559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04779076669454789</v>
+        <v>0.05145954565110845</v>
       </c>
       <c r="C32">
-        <v>-0.002016945454310972</v>
+        <v>-0.001856751977471153</v>
       </c>
       <c r="D32">
-        <v>0.01984579300380558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03618940325803173</v>
+      </c>
+      <c r="E32">
+        <v>-0.03415701594493165</v>
+      </c>
+      <c r="F32">
+        <v>0.00429445956537639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09498541090625491</v>
+        <v>0.08853275427973592</v>
       </c>
       <c r="C33">
-        <v>-0.01418682107535852</v>
+        <v>0.006420117426942771</v>
       </c>
       <c r="D33">
-        <v>0.07459131223314808</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1029041063450065</v>
+      </c>
+      <c r="E33">
+        <v>-0.04387494512085319</v>
+      </c>
+      <c r="F33">
+        <v>0.03812100833858957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07370961561324062</v>
+        <v>0.06801366852607854</v>
       </c>
       <c r="C34">
-        <v>-0.01649055272871859</v>
+        <v>0.009965281967240606</v>
       </c>
       <c r="D34">
-        <v>0.0803999690450674</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1101694934954903</v>
+      </c>
+      <c r="E34">
+        <v>-0.03436888731336314</v>
+      </c>
+      <c r="F34">
+        <v>0.03218430856781646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02412338315995048</v>
+        <v>0.02545366770339843</v>
       </c>
       <c r="C35">
-        <v>-0.00279044612498291</v>
+        <v>0.002568174390541948</v>
       </c>
       <c r="D35">
-        <v>0.005396511911123561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01198496310412217</v>
+      </c>
+      <c r="E35">
+        <v>-0.01251437268850318</v>
+      </c>
+      <c r="F35">
+        <v>0.0009238225351721796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02773843861723053</v>
+        <v>0.02763198124267718</v>
       </c>
       <c r="C36">
-        <v>-0.008114058872980265</v>
+        <v>0.006801473647537869</v>
       </c>
       <c r="D36">
-        <v>0.03794683675287925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04008621496738241</v>
+      </c>
+      <c r="E36">
+        <v>-0.01688927516011044</v>
+      </c>
+      <c r="F36">
+        <v>0.01504337652609126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004275909161006144</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006165358149758928</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002360482094348918</v>
+      </c>
+      <c r="E37">
+        <v>0.0008048864204741131</v>
+      </c>
+      <c r="F37">
+        <v>-0.001593796405831639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1196872551006463</v>
+        <v>0.1043562336837695</v>
       </c>
       <c r="C39">
-        <v>-0.02496887273828933</v>
+        <v>0.0155417566777997</v>
       </c>
       <c r="D39">
-        <v>0.1359743106131402</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1546548668235607</v>
+      </c>
+      <c r="E39">
+        <v>-0.0591386797986744</v>
+      </c>
+      <c r="F39">
+        <v>0.02912412799368872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03842131458444202</v>
+        <v>0.04142020151102729</v>
       </c>
       <c r="C40">
-        <v>-0.009907535733568828</v>
+        <v>0.007110774562737156</v>
       </c>
       <c r="D40">
-        <v>0.009483195211752171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03077174336722899</v>
+      </c>
+      <c r="E40">
+        <v>-0.001688017111637876</v>
+      </c>
+      <c r="F40">
+        <v>-0.01739133869008807</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02476359191022435</v>
+        <v>0.02766282304028314</v>
       </c>
       <c r="C41">
-        <v>-0.00717078643102185</v>
+        <v>0.006796149861081231</v>
       </c>
       <c r="D41">
-        <v>0.01027692786145472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01101679244254548</v>
+      </c>
+      <c r="E41">
+        <v>-0.01226864891776145</v>
+      </c>
+      <c r="F41">
+        <v>-0.005393753447917512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04237183252181841</v>
+        <v>0.04065073658651813</v>
       </c>
       <c r="C43">
-        <v>-0.008406103468628988</v>
+        <v>0.006993492626794605</v>
       </c>
       <c r="D43">
-        <v>0.0121287710621991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01910137812862343</v>
+      </c>
+      <c r="E43">
+        <v>-0.02558024423674136</v>
+      </c>
+      <c r="F43">
+        <v>-0.01255018592862825</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.08126687648042136</v>
+        <v>0.08040094901101569</v>
       </c>
       <c r="C44">
-        <v>-0.02757531855688085</v>
+        <v>0.01930754806256256</v>
       </c>
       <c r="D44">
-        <v>0.07027269108204676</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09746206356965109</v>
+      </c>
+      <c r="E44">
+        <v>-0.06136797626800054</v>
+      </c>
+      <c r="F44">
+        <v>0.1589978306242668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02039738466678678</v>
+        <v>0.02311423144301298</v>
       </c>
       <c r="C46">
-        <v>-0.003692247673817542</v>
+        <v>0.003223011049445093</v>
       </c>
       <c r="D46">
-        <v>0.007264345486477653</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01359951116931556</v>
+      </c>
+      <c r="E46">
+        <v>-0.02626607743148888</v>
+      </c>
+      <c r="F46">
+        <v>-0.006677918380101767</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05428875623781138</v>
+        <v>0.05262294476343362</v>
       </c>
       <c r="C47">
-        <v>-0.004728291397118674</v>
+        <v>0.003698523447781711</v>
       </c>
       <c r="D47">
-        <v>0.005730040999347531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01245540419697428</v>
+      </c>
+      <c r="E47">
+        <v>-0.02409716603859622</v>
+      </c>
+      <c r="F47">
+        <v>-0.03165027642098273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04990720707532134</v>
+        <v>0.05004525962844648</v>
       </c>
       <c r="C48">
-        <v>-0.005220879692290043</v>
+        <v>0.002095230533646113</v>
       </c>
       <c r="D48">
-        <v>0.04058166200361069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05077318571506305</v>
+      </c>
+      <c r="E48">
+        <v>0.004967966165407756</v>
+      </c>
+      <c r="F48">
+        <v>0.008628590377338766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2007686783407782</v>
+        <v>0.1996649109025071</v>
       </c>
       <c r="C49">
-        <v>-0.02036311242167695</v>
+        <v>0.01890747499498389</v>
       </c>
       <c r="D49">
-        <v>-0.020008495237053</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00721928827444092</v>
+      </c>
+      <c r="E49">
+        <v>-0.02910150413258798</v>
+      </c>
+      <c r="F49">
+        <v>0.03960821979247081</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04987462852588861</v>
+        <v>0.05152638812439256</v>
       </c>
       <c r="C50">
-        <v>-0.01306261979404641</v>
+        <v>0.01125592830555481</v>
       </c>
       <c r="D50">
-        <v>0.0201337029613564</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02431793034903235</v>
+      </c>
+      <c r="E50">
+        <v>-0.03007535590348598</v>
+      </c>
+      <c r="F50">
+        <v>0.01018077190420741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.155619393100358</v>
+        <v>0.1490148505767181</v>
       </c>
       <c r="C52">
-        <v>-0.01903831285840406</v>
+        <v>0.01751791346681343</v>
       </c>
       <c r="D52">
-        <v>0.04974478199572922</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04188645319246952</v>
+      </c>
+      <c r="E52">
+        <v>-0.02035265746983127</v>
+      </c>
+      <c r="F52">
+        <v>0.04452401541208769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1718398990696018</v>
+        <v>0.1710341655740263</v>
       </c>
       <c r="C53">
-        <v>-0.01861496759806223</v>
+        <v>0.01993728430550692</v>
       </c>
       <c r="D53">
-        <v>0.01699904883441337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004744873609706071</v>
+      </c>
+      <c r="E53">
+        <v>-0.02841107579827808</v>
+      </c>
+      <c r="F53">
+        <v>0.07470696221471244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01977021709024534</v>
+        <v>0.02063759257564785</v>
       </c>
       <c r="C54">
-        <v>-0.01267149877138241</v>
+        <v>0.01115543328617282</v>
       </c>
       <c r="D54">
-        <v>0.02529453021786984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03449683804004702</v>
+      </c>
+      <c r="E54">
+        <v>-0.02165172957777114</v>
+      </c>
+      <c r="F54">
+        <v>-0.005167849871690269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1138234092958577</v>
+        <v>0.114562962707547</v>
       </c>
       <c r="C55">
-        <v>-0.01715860896523689</v>
+        <v>0.01752223914750365</v>
       </c>
       <c r="D55">
-        <v>0.01327559871951266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007364609342976816</v>
+      </c>
+      <c r="E55">
+        <v>-0.02339006458181142</v>
+      </c>
+      <c r="F55">
+        <v>0.04761876236921308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1783248437473257</v>
+        <v>0.1767910333600609</v>
       </c>
       <c r="C56">
-        <v>-0.01616761004637051</v>
+        <v>0.01783203078791966</v>
       </c>
       <c r="D56">
-        <v>0.01192240293870582</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002777401483745777</v>
+      </c>
+      <c r="E56">
+        <v>-0.03233750103477791</v>
+      </c>
+      <c r="F56">
+        <v>0.05537184433896176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05004346152506459</v>
+        <v>0.04477440216002011</v>
       </c>
       <c r="C58">
-        <v>-0.00582921992127782</v>
+        <v>-0.0004364619409500606</v>
       </c>
       <c r="D58">
-        <v>0.05308454001150918</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07100969001253328</v>
+      </c>
+      <c r="E58">
+        <v>-0.03186227413494954</v>
+      </c>
+      <c r="F58">
+        <v>-0.03720965304510664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1583839766975407</v>
+        <v>0.1673407657188155</v>
       </c>
       <c r="C59">
-        <v>-0.01215649995134523</v>
+        <v>0.02267969706271096</v>
       </c>
       <c r="D59">
-        <v>-0.2275606541541817</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2181938890853473</v>
+      </c>
+      <c r="E59">
+        <v>0.04637878769393981</v>
+      </c>
+      <c r="F59">
+        <v>-0.03441162939329228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2380774435851234</v>
+        <v>0.2317539511757334</v>
       </c>
       <c r="C60">
-        <v>-0.0004232831027853916</v>
+        <v>-0.002081875240467778</v>
       </c>
       <c r="D60">
-        <v>0.04460476981209007</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03898333326379197</v>
+      </c>
+      <c r="E60">
+        <v>-0.006321422008140182</v>
+      </c>
+      <c r="F60">
+        <v>0.001104742203622932</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09003381342609425</v>
+        <v>0.07999382185652017</v>
       </c>
       <c r="C61">
-        <v>-0.01858804188668267</v>
+        <v>0.01109043902230499</v>
       </c>
       <c r="D61">
-        <v>0.09433637636117258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1180026375235054</v>
+      </c>
+      <c r="E61">
+        <v>-0.0388695457982895</v>
+      </c>
+      <c r="F61">
+        <v>0.0124273849976236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1708576418199939</v>
+        <v>0.1693803266255309</v>
       </c>
       <c r="C62">
-        <v>-0.02055660086506355</v>
+        <v>0.02085731814070968</v>
       </c>
       <c r="D62">
-        <v>0.006108785536222992</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004696280992878594</v>
+      </c>
+      <c r="E62">
+        <v>-0.03277258974793435</v>
+      </c>
+      <c r="F62">
+        <v>0.03691974131978533</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0455467315841177</v>
+        <v>0.04552936563338058</v>
       </c>
       <c r="C63">
-        <v>-0.006190829155224582</v>
+        <v>0.001566271296451758</v>
       </c>
       <c r="D63">
-        <v>0.04005727882421486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05906367463868113</v>
+      </c>
+      <c r="E63">
+        <v>-0.02285070218811263</v>
+      </c>
+      <c r="F63">
+        <v>0.003085711531089005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1111021348299502</v>
+        <v>0.1108594328711744</v>
       </c>
       <c r="C64">
-        <v>-0.01471213462853124</v>
+        <v>0.01138665966616872</v>
       </c>
       <c r="D64">
-        <v>0.03328994415841796</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04346705096496407</v>
+      </c>
+      <c r="E64">
+        <v>-0.02247603190727859</v>
+      </c>
+      <c r="F64">
+        <v>0.02647352008619873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1383367526508488</v>
+        <v>0.1507968655374618</v>
       </c>
       <c r="C65">
-        <v>-0.03226357129937963</v>
+        <v>0.03425589507172835</v>
       </c>
       <c r="D65">
-        <v>-0.04688607095038118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04478693998757886</v>
+      </c>
+      <c r="E65">
+        <v>-0.005261675236999197</v>
+      </c>
+      <c r="F65">
+        <v>0.03970994184228785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1428718926093554</v>
+        <v>0.1237809443582219</v>
       </c>
       <c r="C66">
-        <v>-0.02291845057334418</v>
+        <v>0.0134545748511998</v>
       </c>
       <c r="D66">
-        <v>0.1136033073935133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1424144122263283</v>
+      </c>
+      <c r="E66">
+        <v>-0.06431156399829643</v>
+      </c>
+      <c r="F66">
+        <v>0.03406017509657389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06486731653392178</v>
+        <v>0.05713626301897749</v>
       </c>
       <c r="C67">
-        <v>-0.005566390028388235</v>
+        <v>0.002754806428112854</v>
       </c>
       <c r="D67">
-        <v>0.05149563840234888</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05566437350908423</v>
+      </c>
+      <c r="E67">
+        <v>-0.0162854973722005</v>
+      </c>
+      <c r="F67">
+        <v>-0.02944509536181766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1009932801059423</v>
+        <v>0.1163535023024824</v>
       </c>
       <c r="C68">
-        <v>-0.02064720723823925</v>
+        <v>0.03320391240333919</v>
       </c>
       <c r="D68">
-        <v>-0.2743659812375454</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2613151181389344</v>
+      </c>
+      <c r="E68">
+        <v>0.08669714934823093</v>
+      </c>
+      <c r="F68">
+        <v>-0.0009999103066542878</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04095186886555044</v>
+        <v>0.03902806572690912</v>
       </c>
       <c r="C69">
-        <v>-0.001626191719909403</v>
+        <v>0.001225788218633662</v>
       </c>
       <c r="D69">
-        <v>0.00740358223666609</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008412716800460717</v>
+      </c>
+      <c r="E69">
+        <v>-0.02405819583396563</v>
+      </c>
+      <c r="F69">
+        <v>0.001380874240378075</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06671378048065578</v>
+        <v>0.06640951019036988</v>
       </c>
       <c r="C70">
-        <v>0.02387248446018595</v>
+        <v>-0.0274643848442527</v>
       </c>
       <c r="D70">
-        <v>-0.01309187491185538</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02444550557824836</v>
+      </c>
+      <c r="E70">
+        <v>0.0316205926110902</v>
+      </c>
+      <c r="F70">
+        <v>-0.1796943741751966</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.119608249666401</v>
+        <v>0.1361346081595616</v>
       </c>
       <c r="C71">
-        <v>-0.02413640447069126</v>
+        <v>0.03754668416839716</v>
       </c>
       <c r="D71">
-        <v>-0.2896761720049378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2725857930615241</v>
+      </c>
+      <c r="E71">
+        <v>0.0969756464060509</v>
+      </c>
+      <c r="F71">
+        <v>0.004570153517096861</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1376330780391069</v>
+        <v>0.1424445357987081</v>
       </c>
       <c r="C72">
-        <v>-0.02695131635252761</v>
+        <v>0.0272412964007665</v>
       </c>
       <c r="D72">
-        <v>0.002554644612215117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003216027276208934</v>
+      </c>
+      <c r="E72">
+        <v>-0.03675139418486837</v>
+      </c>
+      <c r="F72">
+        <v>0.03130583269536467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2058362506530189</v>
+        <v>0.2042095596198748</v>
       </c>
       <c r="C73">
-        <v>-0.01613625104208588</v>
+        <v>0.01304950318868829</v>
       </c>
       <c r="D73">
-        <v>0.01453678108507239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01617334155656135</v>
+      </c>
+      <c r="E73">
+        <v>-0.06150181510406106</v>
+      </c>
+      <c r="F73">
+        <v>0.04064920970666158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0911591447989621</v>
+        <v>0.09494203967275912</v>
       </c>
       <c r="C74">
-        <v>-0.0130470162698494</v>
+        <v>0.01336847955633162</v>
       </c>
       <c r="D74">
-        <v>0.02416681773470597</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01697940410635598</v>
+      </c>
+      <c r="E74">
+        <v>-0.04386163380127614</v>
+      </c>
+      <c r="F74">
+        <v>0.05742846361842031</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1335747301206071</v>
+        <v>0.1272434498200589</v>
       </c>
       <c r="C75">
-        <v>-0.02959028927683912</v>
+        <v>0.02839005799216551</v>
       </c>
       <c r="D75">
-        <v>0.0308581349946916</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03000408407256469</v>
+      </c>
+      <c r="E75">
+        <v>-0.05735319294855863</v>
+      </c>
+      <c r="F75">
+        <v>0.02357534716788564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08378359409279294</v>
+        <v>0.08921033478456142</v>
       </c>
       <c r="C77">
-        <v>-0.01512816861735545</v>
+        <v>0.007998116115312421</v>
       </c>
       <c r="D77">
-        <v>0.09557148497799424</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1132184636273119</v>
+      </c>
+      <c r="E77">
+        <v>-0.04217907650049151</v>
+      </c>
+      <c r="F77">
+        <v>0.03339996440492302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1056244660679539</v>
+        <v>0.1002992125690556</v>
       </c>
       <c r="C78">
-        <v>-0.04713310064824491</v>
+        <v>0.03928973985700863</v>
       </c>
       <c r="D78">
-        <v>0.09537487100348406</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1140171523573769</v>
+      </c>
+      <c r="E78">
+        <v>-0.07412760883036182</v>
+      </c>
+      <c r="F78">
+        <v>0.04772083253501747</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1640178196290812</v>
+        <v>0.163595382161102</v>
       </c>
       <c r="C79">
-        <v>-0.02348238651682814</v>
+        <v>0.02316941108583466</v>
       </c>
       <c r="D79">
-        <v>0.01479307610110871</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01377636738322023</v>
+      </c>
+      <c r="E79">
+        <v>-0.04555425283409811</v>
+      </c>
+      <c r="F79">
+        <v>0.01390209234962269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08884360093111209</v>
+        <v>0.08177829715149509</v>
       </c>
       <c r="C80">
-        <v>-0.002009805027147156</v>
+        <v>-0.0008818248791988778</v>
       </c>
       <c r="D80">
-        <v>0.03967891229450023</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05610357073055915</v>
+      </c>
+      <c r="E80">
+        <v>-0.03528924609856152</v>
+      </c>
+      <c r="F80">
+        <v>-0.01959384636769822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1182880918101346</v>
+        <v>0.1183293501490179</v>
       </c>
       <c r="C81">
-        <v>-0.0318270602243944</v>
+        <v>0.03193977112672367</v>
       </c>
       <c r="D81">
-        <v>0.02871027219875809</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01583394156574247</v>
+      </c>
+      <c r="E81">
+        <v>-0.05690750407563751</v>
+      </c>
+      <c r="F81">
+        <v>0.02139198870561393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1646351985957145</v>
+        <v>0.1655384121028255</v>
       </c>
       <c r="C82">
-        <v>-0.0239773319940186</v>
+        <v>0.02521665193488326</v>
       </c>
       <c r="D82">
-        <v>0.01710271899104463</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004032474893550389</v>
+      </c>
+      <c r="E82">
+        <v>-0.02601368448282059</v>
+      </c>
+      <c r="F82">
+        <v>0.08328352566632832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06826586822074934</v>
+        <v>0.05855839273409756</v>
       </c>
       <c r="C83">
-        <v>-0.006486338211511272</v>
+        <v>0.002797485719927719</v>
       </c>
       <c r="D83">
-        <v>0.03333453670155122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05054344466965208</v>
+      </c>
+      <c r="E83">
+        <v>-0.003271334360882919</v>
+      </c>
+      <c r="F83">
+        <v>-0.02922777183250068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06682727344619194</v>
+        <v>0.05977667723898201</v>
       </c>
       <c r="C84">
-        <v>-0.01507081892496994</v>
+        <v>0.01138121494440097</v>
       </c>
       <c r="D84">
-        <v>0.05033363544286384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06254276413722318</v>
+      </c>
+      <c r="E84">
+        <v>-0.006903580758132289</v>
+      </c>
+      <c r="F84">
+        <v>0.004868530095919694</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1370891414128823</v>
+        <v>0.135422361322594</v>
       </c>
       <c r="C85">
-        <v>-0.02808909460035007</v>
+        <v>0.02837678791463633</v>
       </c>
       <c r="D85">
-        <v>0.01824582338902689</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009219357419557378</v>
+      </c>
+      <c r="E85">
+        <v>-0.03596002036871428</v>
+      </c>
+      <c r="F85">
+        <v>0.04790930002538045</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1060979867166564</v>
+        <v>0.09493964405834712</v>
       </c>
       <c r="C86">
-        <v>0.001319199334526812</v>
+        <v>-0.005918371153126905</v>
       </c>
       <c r="D86">
-        <v>-0.01499062093335215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04710043652428368</v>
+      </c>
+      <c r="E86">
+        <v>-0.2419754736417561</v>
+      </c>
+      <c r="F86">
+        <v>-0.9030237367398914</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1009599976095512</v>
+        <v>0.09462581434558454</v>
       </c>
       <c r="C87">
-        <v>-0.02939737420819568</v>
+        <v>0.01933006260739574</v>
       </c>
       <c r="D87">
-        <v>0.06167624310468841</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09382973041895631</v>
+      </c>
+      <c r="E87">
+        <v>0.05409899679034622</v>
+      </c>
+      <c r="F87">
+        <v>0.04531765850013977</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06106524873640518</v>
+        <v>0.06042857246330711</v>
       </c>
       <c r="C88">
-        <v>-0.005328512769163014</v>
+        <v>0.002184548752358964</v>
       </c>
       <c r="D88">
-        <v>0.05399787546957416</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04979374585731286</v>
+      </c>
+      <c r="E88">
+        <v>-0.02403612083369906</v>
+      </c>
+      <c r="F88">
+        <v>0.01556678756809025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1148389618204208</v>
+        <v>0.1286914617531152</v>
       </c>
       <c r="C89">
-        <v>-0.002348047815441992</v>
+        <v>0.01332707860730278</v>
       </c>
       <c r="D89">
-        <v>-0.2668458210924329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.244631765050065</v>
+      </c>
+      <c r="E89">
+        <v>0.08822144724342042</v>
+      </c>
+      <c r="F89">
+        <v>-0.01370983442365127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1295151141504524</v>
+        <v>0.1509710096884509</v>
       </c>
       <c r="C90">
-        <v>-0.02087345368685313</v>
+        <v>0.03435111996891651</v>
       </c>
       <c r="D90">
-        <v>-0.27731725767436</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2709738201470425</v>
+      </c>
+      <c r="E90">
+        <v>0.1133938027097744</v>
+      </c>
+      <c r="F90">
+        <v>-0.01229116034065335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1191207490327314</v>
+        <v>0.1213904058161139</v>
       </c>
       <c r="C91">
-        <v>-0.01877226357501325</v>
+        <v>0.02012979374875164</v>
       </c>
       <c r="D91">
-        <v>-0.005672913058382692</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01576276806975908</v>
+      </c>
+      <c r="E91">
+        <v>-0.05515144741098612</v>
+      </c>
+      <c r="F91">
+        <v>0.001160097430939654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1343174955296838</v>
+        <v>0.1474438540795072</v>
       </c>
       <c r="C92">
-        <v>-0.01037413028761983</v>
+        <v>0.02477266514828993</v>
       </c>
       <c r="D92">
-        <v>-0.3111310059740935</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2908944042160916</v>
+      </c>
+      <c r="E92">
+        <v>0.1007117001623556</v>
+      </c>
+      <c r="F92">
+        <v>-0.01837771002127868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1332019419645085</v>
+        <v>0.1510373955981756</v>
       </c>
       <c r="C93">
-        <v>-0.01641821612275504</v>
+        <v>0.02928393233724315</v>
       </c>
       <c r="D93">
-        <v>-0.2731584995174323</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2672096912461067</v>
+      </c>
+      <c r="E93">
+        <v>0.07692843750412856</v>
+      </c>
+      <c r="F93">
+        <v>-0.003236599516196808</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1345136034552883</v>
+        <v>0.1282936575904216</v>
       </c>
       <c r="C94">
-        <v>-0.02668557507934867</v>
+        <v>0.02484547951882632</v>
       </c>
       <c r="D94">
-        <v>0.04479827825421499</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04126787625846721</v>
+      </c>
+      <c r="E94">
+        <v>-0.05699941316803196</v>
+      </c>
+      <c r="F94">
+        <v>0.03656893228072975</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1289580474742655</v>
+        <v>0.1267706447875751</v>
       </c>
       <c r="C95">
-        <v>-0.01095700739212398</v>
+        <v>0.003382104291920041</v>
       </c>
       <c r="D95">
-        <v>0.0670067804069281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09458897224817849</v>
+      </c>
+      <c r="E95">
+        <v>-0.05024394390038945</v>
+      </c>
+      <c r="F95">
+        <v>-0.009191473701934081</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1160673244131106</v>
+        <v>0.1100197318060041</v>
       </c>
       <c r="C96">
-        <v>0.9874635297094173</v>
+        <v>-0.9869802666809672</v>
       </c>
       <c r="D96">
-        <v>-0.009609398009393181</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05180512028151611</v>
+      </c>
+      <c r="E96">
+        <v>-0.05246394427694508</v>
+      </c>
+      <c r="F96">
+        <v>0.04276357574143072</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1908959815862952</v>
+        <v>0.1911035319827338</v>
       </c>
       <c r="C97">
-        <v>0.006469463094753452</v>
+        <v>-0.006880887663152334</v>
       </c>
       <c r="D97">
-        <v>-0.01423953741944256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01917998224041068</v>
+      </c>
+      <c r="E97">
+        <v>-0.02095042853423812</v>
+      </c>
+      <c r="F97">
+        <v>-0.09079412766253661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1991598764575635</v>
+        <v>0.2061847988728966</v>
       </c>
       <c r="C98">
-        <v>-0.01045446298719906</v>
+        <v>0.007152484056603852</v>
       </c>
       <c r="D98">
-        <v>0.01366732706974999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01344694122475414</v>
+      </c>
+      <c r="E98">
+        <v>0.07543073182245778</v>
+      </c>
+      <c r="F98">
+        <v>-0.09179810094981228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05671701695767496</v>
+        <v>0.05474155834172682</v>
       </c>
       <c r="C99">
-        <v>0.002023074233510223</v>
+        <v>-0.004478012937845391</v>
       </c>
       <c r="D99">
-        <v>0.02343363424286524</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0391565915813732</v>
+      </c>
+      <c r="E99">
+        <v>-0.02178744218745497</v>
+      </c>
+      <c r="F99">
+        <v>0.00306363312564567</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1438031919383816</v>
+        <v>0.1283661723737614</v>
       </c>
       <c r="C100">
-        <v>0.03754981484067424</v>
+        <v>-0.0532658290692849</v>
       </c>
       <c r="D100">
-        <v>0.4223759900905318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3468262148813835</v>
+      </c>
+      <c r="E100">
+        <v>0.8836506269887506</v>
+      </c>
+      <c r="F100">
+        <v>-0.168172227898148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02658598098384869</v>
+        <v>0.02868476181286845</v>
       </c>
       <c r="C101">
-        <v>-0.009863339136416752</v>
+        <v>0.008732879348826231</v>
       </c>
       <c r="D101">
-        <v>0.01976477798323072</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03107440715881862</v>
+      </c>
+      <c r="E101">
+        <v>-0.01330441413504234</v>
+      </c>
+      <c r="F101">
+        <v>-0.01393693386175102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
